--- a/1. Reporting_Data/IB_Mark-to-Market PnL/AssetCurrency/2025/202510/Currency_P&L_20251001.xlsx
+++ b/1. Reporting_Data/IB_Mark-to-Market PnL/AssetCurrency/2025/202510/Currency_P&L_20251001.xlsx
@@ -22,28 +22,28 @@
     <t>NAV</t>
   </si>
   <si>
-    <t>HKD MTM</t>
-  </si>
-  <si>
-    <t>HKD Return</t>
-  </si>
-  <si>
-    <t>JPY MTM</t>
-  </si>
-  <si>
-    <t>JPY Return</t>
-  </si>
-  <si>
-    <t>SGD MTM</t>
-  </si>
-  <si>
-    <t>SGD Return</t>
-  </si>
-  <si>
-    <t>USD MTM</t>
-  </si>
-  <si>
-    <t>USD Return</t>
+    <t>Hong Kong MTM</t>
+  </si>
+  <si>
+    <t>Hong Kong Return</t>
+  </si>
+  <si>
+    <t>Japan MTM</t>
+  </si>
+  <si>
+    <t>Japan Return</t>
+  </si>
+  <si>
+    <t>Singapore MTM</t>
+  </si>
+  <si>
+    <t>Singapore Return</t>
+  </si>
+  <si>
+    <t>United States MTM</t>
+  </si>
+  <si>
+    <t>United States Return</t>
   </si>
 </sst>
 </file>

--- a/1. Reporting_Data/IB_Mark-to-Market PnL/AssetCurrency/2025/202510/Currency_P&L_20251001.xlsx
+++ b/1. Reporting_Data/IB_Mark-to-Market PnL/AssetCurrency/2025/202510/Currency_P&L_20251001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Hong Kong Return</t>
   </si>
   <si>
-    <t>Japan MTM</t>
-  </si>
-  <si>
-    <t>Japan Return</t>
-  </si>
-  <si>
     <t>Singapore MTM</t>
   </si>
   <si>
@@ -44,6 +38,24 @@
   </si>
   <si>
     <t>United States Return</t>
+  </si>
+  <si>
+    <t>Australia MTM</t>
+  </si>
+  <si>
+    <t>Australia Return</t>
+  </si>
+  <si>
+    <t>Europe MTM</t>
+  </si>
+  <si>
+    <t>Europe Return</t>
+  </si>
+  <si>
+    <t>Japan MTM</t>
+  </si>
+  <si>
+    <t>Japan Return</t>
   </si>
 </sst>
 </file>
@@ -405,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,37 +454,2767 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B2">
+        <v>67984668.91</v>
+      </c>
+      <c r="C2">
+        <v>-11242.45</v>
+      </c>
+      <c r="D2">
+        <v>-0.000167</v>
+      </c>
+      <c r="E2">
+        <v>3268.06</v>
+      </c>
+      <c r="F2">
+        <v>4.8E-05</v>
+      </c>
+      <c r="G2">
+        <v>461214.82</v>
+      </c>
+      <c r="H2">
+        <v>0.00684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B3">
+        <v>68201567.55</v>
+      </c>
+      <c r="C3">
+        <v>123856.45</v>
+      </c>
+      <c r="D3">
+        <v>0.001822</v>
+      </c>
+      <c r="E3">
+        <v>-1299.99</v>
+      </c>
+      <c r="F3">
+        <v>-1.9E-05</v>
+      </c>
+      <c r="G3">
+        <v>102355.26</v>
+      </c>
+      <c r="H3">
+        <v>0.001506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B4">
+        <v>68125090.59999999</v>
+      </c>
+      <c r="C4">
+        <v>54971.04</v>
+      </c>
+      <c r="D4">
+        <v>0.000806</v>
+      </c>
+      <c r="E4">
+        <v>8066.69</v>
+      </c>
+      <c r="F4">
+        <v>0.000118</v>
+      </c>
+      <c r="G4">
+        <v>-127523.43</v>
+      </c>
+      <c r="H4">
+        <v>-0.00187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B5">
+        <v>68095969.98999999</v>
+      </c>
+      <c r="C5">
+        <v>52661.93</v>
+      </c>
+      <c r="D5">
+        <v>0.000773</v>
+      </c>
+      <c r="E5">
+        <v>350.03</v>
+      </c>
+      <c r="F5">
+        <v>5E-06</v>
+      </c>
+      <c r="G5">
+        <v>50679.49</v>
+      </c>
+      <c r="H5">
+        <v>0.000744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B6">
+        <v>67871500.31999999</v>
+      </c>
+      <c r="C6">
+        <v>-93299.98</v>
+      </c>
+      <c r="D6">
+        <v>-0.00137</v>
+      </c>
+      <c r="E6">
+        <v>3489.84</v>
+      </c>
+      <c r="F6">
+        <v>5.1E-05</v>
+      </c>
+      <c r="G6">
+        <v>-151618.66</v>
+      </c>
+      <c r="H6">
+        <v>-0.002227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>45817</v>
+      </c>
+      <c r="B7">
+        <v>67923504.77</v>
+      </c>
+      <c r="C7">
+        <v>147147.87</v>
+      </c>
+      <c r="D7">
+        <v>0.002168</v>
+      </c>
+      <c r="E7">
+        <v>12944.54</v>
+      </c>
+      <c r="F7">
+        <v>0.000191</v>
+      </c>
+      <c r="G7">
+        <v>-83931.67</v>
+      </c>
+      <c r="H7">
+        <v>-0.001237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B8">
+        <v>68111949.08</v>
+      </c>
+      <c r="C8">
+        <v>-21957.66</v>
+      </c>
+      <c r="D8">
+        <v>-0.000323</v>
+      </c>
+      <c r="E8">
+        <v>-12380.22</v>
+      </c>
+      <c r="F8">
+        <v>-0.000182</v>
+      </c>
+      <c r="G8">
+        <v>231749.66</v>
+      </c>
+      <c r="H8">
+        <v>0.003412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B9">
+        <v>68514462.73</v>
+      </c>
+      <c r="C9">
+        <v>73709.33</v>
+      </c>
+      <c r="D9">
+        <v>0.001082</v>
+      </c>
+      <c r="E9">
+        <v>-10899</v>
+      </c>
+      <c r="F9">
+        <v>-0.00016</v>
+      </c>
+      <c r="G9">
+        <v>347189.15</v>
+      </c>
+      <c r="H9">
+        <v>0.005097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B10">
+        <v>68924866.90000001</v>
+      </c>
+      <c r="C10">
+        <v>-59614.99</v>
+      </c>
+      <c r="D10">
+        <v>-0.00087</v>
+      </c>
+      <c r="E10">
+        <v>-7819.6</v>
+      </c>
+      <c r="F10">
+        <v>-0.000114</v>
+      </c>
+      <c r="G10">
+        <v>445167.54</v>
+      </c>
+      <c r="H10">
+        <v>0.006497</v>
+      </c>
+      <c r="I10">
+        <v>-788.24</v>
+      </c>
+      <c r="J10">
+        <v>-1.2E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B11">
+        <v>68024921.19</v>
+      </c>
+      <c r="C11">
+        <v>-9790.690000000001</v>
+      </c>
+      <c r="D11">
+        <v>-0.000142</v>
+      </c>
+      <c r="E11">
+        <v>-8582.639999999999</v>
+      </c>
+      <c r="F11">
+        <v>-0.000125</v>
+      </c>
+      <c r="G11">
+        <v>-854501.77</v>
+      </c>
+      <c r="H11">
+        <v>-0.012398</v>
+      </c>
+      <c r="I11">
+        <v>4425.84</v>
+      </c>
+      <c r="J11">
+        <v>6.4E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B12">
+        <v>68815175.06999999</v>
+      </c>
+      <c r="C12">
+        <v>29740.47</v>
+      </c>
+      <c r="D12">
+        <v>0.000437</v>
+      </c>
+      <c r="E12">
+        <v>-11325.95</v>
+      </c>
+      <c r="F12">
+        <v>-0.000166</v>
+      </c>
+      <c r="G12">
+        <v>688967.35</v>
+      </c>
+      <c r="H12">
+        <v>0.010128</v>
+      </c>
+      <c r="I12">
+        <v>-7483.14</v>
+      </c>
+      <c r="J12">
+        <v>-0.00011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B13">
+        <v>67922511.59</v>
+      </c>
+      <c r="C13">
+        <v>-28666.75</v>
+      </c>
+      <c r="D13">
+        <v>-0.000417</v>
+      </c>
+      <c r="E13">
+        <v>7856.74</v>
+      </c>
+      <c r="F13">
+        <v>0.000114</v>
+      </c>
+      <c r="G13">
+        <v>-865013.42</v>
+      </c>
+      <c r="H13">
+        <v>-0.01257</v>
+      </c>
+      <c r="I13">
+        <v>1244.69</v>
+      </c>
+      <c r="J13">
+        <v>1.8E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B14">
+        <v>67858861.2</v>
+      </c>
+      <c r="C14">
+        <v>-97631.67999999999</v>
+      </c>
+      <c r="D14">
+        <v>-0.001437</v>
+      </c>
+      <c r="E14">
+        <v>-10268.02</v>
+      </c>
+      <c r="F14">
+        <v>-0.000151</v>
+      </c>
+      <c r="G14">
+        <v>37652.56</v>
+      </c>
+      <c r="H14">
+        <v>0.000554</v>
+      </c>
+      <c r="I14">
+        <v>-1654.49</v>
+      </c>
+      <c r="J14">
+        <v>-2.4E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B15">
+        <v>67594995.03</v>
+      </c>
+      <c r="C15">
+        <v>-224090.48</v>
+      </c>
+      <c r="D15">
+        <v>-0.003302</v>
+      </c>
+      <c r="E15">
+        <v>-38933.71</v>
+      </c>
+      <c r="F15">
+        <v>-0.000574</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-803.67</v>
+      </c>
+      <c r="J15">
+        <v>-1.2E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B16">
+        <v>67317823.8</v>
+      </c>
+      <c r="C16">
+        <v>168391.75</v>
+      </c>
+      <c r="D16">
+        <v>0.002491</v>
+      </c>
+      <c r="E16">
+        <v>20970.9</v>
+      </c>
+      <c r="F16">
+        <v>0.00031</v>
+      </c>
+      <c r="G16">
+        <v>-283540.96</v>
+      </c>
+      <c r="H16">
+        <v>-0.004195</v>
+      </c>
+      <c r="I16">
+        <v>559.8200000000001</v>
+      </c>
+      <c r="J16">
+        <v>8E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>45831</v>
+      </c>
+      <c r="B17">
+        <v>68609973.81999999</v>
+      </c>
+      <c r="C17">
+        <v>111186</v>
+      </c>
+      <c r="D17">
+        <v>0.001652</v>
+      </c>
+      <c r="E17">
+        <v>-27407.78</v>
+      </c>
+      <c r="F17">
+        <v>-0.000407</v>
+      </c>
+      <c r="G17">
+        <v>1257703.16</v>
+      </c>
+      <c r="H17">
+        <v>0.018683</v>
+      </c>
+      <c r="I17">
+        <v>-2562.97</v>
+      </c>
+      <c r="J17">
+        <v>-3.8E-05</v>
+      </c>
+      <c r="K17">
+        <v>2276.97</v>
+      </c>
+      <c r="L17">
+        <v>3.4E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>45832</v>
+      </c>
+      <c r="B18">
+        <v>70545099.28</v>
+      </c>
+      <c r="C18">
+        <v>178913.52</v>
+      </c>
+      <c r="D18">
+        <v>0.002608</v>
+      </c>
+      <c r="E18">
+        <v>25317.36</v>
+      </c>
+      <c r="F18">
+        <v>0.000369</v>
+      </c>
+      <c r="G18">
+        <v>1779055.82</v>
+      </c>
+      <c r="H18">
+        <v>0.02593</v>
+      </c>
+      <c r="I18">
+        <v>-321.88</v>
+      </c>
+      <c r="J18">
+        <v>-5E-06</v>
+      </c>
+      <c r="K18">
+        <v>-39605.46</v>
+      </c>
+      <c r="L18">
+        <v>-0.000577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B19">
+        <v>70243996.68000001</v>
+      </c>
+      <c r="C19">
+        <v>128719.66</v>
+      </c>
+      <c r="D19">
+        <v>0.001825</v>
+      </c>
+      <c r="E19">
+        <v>10561.59</v>
+      </c>
+      <c r="F19">
+        <v>0.00015</v>
+      </c>
+      <c r="G19">
+        <v>-472378.14</v>
+      </c>
+      <c r="H19">
+        <v>-0.006696</v>
+      </c>
+      <c r="I19">
+        <v>-2424.93</v>
+      </c>
+      <c r="J19">
+        <v>-3.4E-05</v>
+      </c>
+      <c r="K19">
+        <v>39923.84</v>
+      </c>
+      <c r="L19">
+        <v>0.000566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B20">
+        <v>71575563.41</v>
+      </c>
+      <c r="C20">
+        <v>-14136.07</v>
+      </c>
+      <c r="D20">
+        <v>-0.000201</v>
+      </c>
+      <c r="E20">
+        <v>-2008.43</v>
+      </c>
+      <c r="F20">
+        <v>-2.9E-05</v>
+      </c>
+      <c r="G20">
+        <v>1281600.07</v>
+      </c>
+      <c r="H20">
+        <v>0.018245</v>
+      </c>
+      <c r="K20">
+        <v>87746.95</v>
+      </c>
+      <c r="L20">
+        <v>0.001249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B21">
+        <v>71217417.03</v>
+      </c>
+      <c r="C21">
+        <v>-72098.99000000001</v>
+      </c>
+      <c r="D21">
+        <v>-0.001007</v>
+      </c>
+      <c r="E21">
+        <v>15736.7</v>
+      </c>
+      <c r="F21">
+        <v>0.00022</v>
+      </c>
+      <c r="G21">
+        <v>-238160.1</v>
+      </c>
+      <c r="H21">
+        <v>-0.003327</v>
+      </c>
+      <c r="K21">
+        <v>-124968.95</v>
+      </c>
+      <c r="L21">
+        <v>-0.001746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B22">
+        <v>72565682.06999999</v>
+      </c>
+      <c r="C22">
+        <v>-204274.76</v>
+      </c>
+      <c r="D22">
+        <v>-0.002868</v>
+      </c>
+      <c r="E22">
+        <v>2076.29</v>
+      </c>
+      <c r="F22">
+        <v>2.9E-05</v>
+      </c>
+      <c r="G22">
+        <v>1531471.24</v>
+      </c>
+      <c r="H22">
+        <v>0.021504</v>
+      </c>
+      <c r="K22">
+        <v>64744.18</v>
+      </c>
+      <c r="L22">
+        <v>0.000909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B23">
+        <v>70347177.65000001</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>19532.5</v>
+      </c>
+      <c r="F23">
+        <v>0.000269</v>
+      </c>
+      <c r="G23">
+        <v>-2158212.87</v>
+      </c>
+      <c r="H23">
+        <v>-0.029742</v>
+      </c>
+      <c r="K23">
+        <v>-166812.05</v>
+      </c>
+      <c r="L23">
+        <v>-0.002299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B24">
+        <v>70855850.48</v>
+      </c>
+      <c r="C24">
+        <v>195864.66</v>
+      </c>
+      <c r="D24">
+        <v>0.002784</v>
+      </c>
+      <c r="E24">
+        <v>30152.1</v>
+      </c>
+      <c r="F24">
+        <v>0.000429</v>
+      </c>
+      <c r="G24">
+        <v>260190.37</v>
+      </c>
+      <c r="H24">
+        <v>0.003699</v>
+      </c>
+      <c r="K24">
+        <v>36631.92</v>
+      </c>
+      <c r="L24">
+        <v>0.000521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>45841</v>
+      </c>
+      <c r="B25">
+        <v>71192753.89</v>
+      </c>
+      <c r="C25">
+        <v>-303951.4</v>
+      </c>
+      <c r="D25">
+        <v>-0.00429</v>
+      </c>
+      <c r="E25">
+        <v>24484.63</v>
+      </c>
+      <c r="F25">
+        <v>0.000346</v>
+      </c>
+      <c r="G25">
+        <v>525253.66</v>
+      </c>
+      <c r="H25">
+        <v>0.007413</v>
+      </c>
+      <c r="K25">
+        <v>3147.73</v>
+      </c>
+      <c r="L25">
+        <v>4.4E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B26">
+        <v>71259648.98</v>
+      </c>
+      <c r="C26">
+        <v>13320.62</v>
+      </c>
+      <c r="D26">
+        <v>0.000187</v>
+      </c>
+      <c r="E26">
+        <v>-4660.83</v>
+      </c>
+      <c r="F26">
+        <v>-6.499999999999999E-05</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>58291.68</v>
+      </c>
+      <c r="L26">
+        <v>0.000819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B27">
+        <v>69935930.34</v>
+      </c>
+      <c r="C27">
+        <v>-31550.51</v>
+      </c>
+      <c r="D27">
+        <v>-0.000443</v>
+      </c>
+      <c r="E27">
+        <v>39230.58</v>
+      </c>
+      <c r="F27">
+        <v>0.0005509999999999999</v>
+      </c>
+      <c r="G27">
+        <v>-1175926.6</v>
+      </c>
+      <c r="H27">
+        <v>-0.016502</v>
+      </c>
+      <c r="K27">
+        <v>66098.45</v>
+      </c>
+      <c r="L27">
+        <v>0.000928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B28">
+        <v>69560854.53</v>
+      </c>
+      <c r="C28">
+        <v>163152.1</v>
+      </c>
+      <c r="D28">
+        <v>0.002333</v>
+      </c>
+      <c r="E28">
+        <v>27587.3</v>
+      </c>
+      <c r="F28">
+        <v>0.000394</v>
+      </c>
+      <c r="G28">
+        <v>-563130.26</v>
+      </c>
+      <c r="H28">
+        <v>-0.008052</v>
+      </c>
+      <c r="K28">
+        <v>10885.25</v>
+      </c>
+      <c r="L28">
+        <v>0.000156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B29">
+        <v>70702125.89</v>
+      </c>
+      <c r="C29">
+        <v>-389781.28</v>
+      </c>
+      <c r="D29">
+        <v>-0.005603</v>
+      </c>
+      <c r="E29">
+        <v>1179.43</v>
+      </c>
+      <c r="F29">
+        <v>1.7E-05</v>
+      </c>
+      <c r="G29">
+        <v>1382523.95</v>
+      </c>
+      <c r="H29">
+        <v>0.019875</v>
+      </c>
+      <c r="K29">
+        <v>37710.5</v>
+      </c>
+      <c r="L29">
+        <v>0.0005419999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B30">
+        <v>70910366.73</v>
+      </c>
+      <c r="C30">
+        <v>261805.31</v>
+      </c>
+      <c r="D30">
+        <v>0.003703</v>
+      </c>
+      <c r="E30">
+        <v>16920.12</v>
+      </c>
+      <c r="F30">
+        <v>0.000239</v>
+      </c>
+      <c r="G30">
+        <v>-54240.37</v>
+      </c>
+      <c r="H30">
+        <v>-0.000767</v>
+      </c>
+      <c r="K30">
+        <v>-23144.11</v>
+      </c>
+      <c r="L30">
+        <v>-0.000327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B31">
+        <v>70606394.52</v>
+      </c>
+      <c r="C31">
+        <v>101351.82</v>
+      </c>
+      <c r="D31">
+        <v>0.001429</v>
+      </c>
+      <c r="E31">
+        <v>-11668.14</v>
+      </c>
+      <c r="F31">
+        <v>-0.000165</v>
+      </c>
+      <c r="G31">
+        <v>-352765.01</v>
+      </c>
+      <c r="H31">
+        <v>-0.004975</v>
+      </c>
+      <c r="K31">
+        <v>23542.98</v>
+      </c>
+      <c r="L31">
+        <v>0.000332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B32">
+        <v>71410585.44</v>
+      </c>
+      <c r="C32">
+        <v>66861.42</v>
+      </c>
+      <c r="D32">
+        <v>0.000947</v>
+      </c>
+      <c r="E32">
+        <v>33493.2</v>
+      </c>
+      <c r="F32">
+        <v>0.000474</v>
+      </c>
+      <c r="G32">
+        <v>705140.41</v>
+      </c>
+      <c r="H32">
+        <v>0.009986999999999999</v>
+      </c>
+      <c r="K32">
+        <v>57498.65</v>
+      </c>
+      <c r="L32">
+        <v>0.0008140000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B33">
+        <v>71372234.68000001</v>
+      </c>
+      <c r="C33">
+        <v>107097.98</v>
+      </c>
+      <c r="D33">
+        <v>0.0015</v>
+      </c>
+      <c r="E33">
+        <v>17184.48</v>
+      </c>
+      <c r="F33">
+        <v>0.000241</v>
+      </c>
+      <c r="G33">
+        <v>-8102.22</v>
+      </c>
+      <c r="H33">
+        <v>-0.000113</v>
+      </c>
+      <c r="K33">
+        <v>-85885.66</v>
+      </c>
+      <c r="L33">
+        <v>-0.001203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B34">
+        <v>71893515.13</v>
+      </c>
+      <c r="C34">
+        <v>28378.67</v>
+      </c>
+      <c r="D34">
+        <v>0.000398</v>
+      </c>
+      <c r="E34">
+        <v>20718.05</v>
+      </c>
+      <c r="F34">
+        <v>0.00029</v>
+      </c>
+      <c r="G34">
+        <v>508462.3</v>
+      </c>
+      <c r="H34">
+        <v>0.007124</v>
+      </c>
+      <c r="K34">
+        <v>-18853.89</v>
+      </c>
+      <c r="L34">
+        <v>-0.000264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B35">
+        <v>72904070.06</v>
+      </c>
+      <c r="C35">
+        <v>-184756.23</v>
+      </c>
+      <c r="D35">
+        <v>-0.00257</v>
+      </c>
+      <c r="E35">
+        <v>24999.52</v>
+      </c>
+      <c r="F35">
+        <v>0.000348</v>
+      </c>
+      <c r="G35">
+        <v>1161098.7</v>
+      </c>
+      <c r="H35">
+        <v>0.01615</v>
+      </c>
+      <c r="K35">
+        <v>28092.56</v>
+      </c>
+      <c r="L35">
+        <v>0.000391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B36">
+        <v>73023224.36</v>
+      </c>
+      <c r="C36">
+        <v>188606.83</v>
+      </c>
+      <c r="D36">
+        <v>0.002587</v>
+      </c>
+      <c r="E36">
+        <v>22452.21</v>
+      </c>
+      <c r="F36">
+        <v>0.000308</v>
+      </c>
+      <c r="G36">
+        <v>-75879.7</v>
+      </c>
+      <c r="H36">
+        <v>-0.001041</v>
+      </c>
+      <c r="K36">
+        <v>1689.5</v>
+      </c>
+      <c r="L36">
+        <v>2.3E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B37">
+        <v>73238659.16</v>
+      </c>
+      <c r="C37">
+        <v>13565.09</v>
+      </c>
+      <c r="D37">
+        <v>0.000186</v>
+      </c>
+      <c r="E37">
+        <v>27987.57</v>
+      </c>
+      <c r="F37">
+        <v>0.000383</v>
+      </c>
+      <c r="G37">
+        <v>194389.63</v>
+      </c>
+      <c r="H37">
+        <v>0.002662</v>
+      </c>
+      <c r="K37">
+        <v>-13502.46</v>
+      </c>
+      <c r="L37">
+        <v>-0.000185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B38">
+        <v>72932040.90000001</v>
+      </c>
+      <c r="C38">
+        <v>-5572.53</v>
+      </c>
+      <c r="D38">
+        <v>-7.6E-05</v>
+      </c>
+      <c r="E38">
+        <v>3042.88</v>
+      </c>
+      <c r="F38">
+        <v>4.2E-05</v>
+      </c>
+      <c r="G38">
+        <v>-274041.41</v>
+      </c>
+      <c r="H38">
+        <v>-0.003742</v>
+      </c>
+      <c r="K38">
+        <v>-22630.79</v>
+      </c>
+      <c r="L38">
+        <v>-0.000309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B39">
+        <v>74023497.54000001</v>
+      </c>
+      <c r="C39">
+        <v>393602.01</v>
+      </c>
+      <c r="D39">
+        <v>0.005397</v>
+      </c>
+      <c r="E39">
+        <v>48284.47</v>
+      </c>
+      <c r="F39">
+        <v>0.000662</v>
+      </c>
+      <c r="G39">
+        <v>667218.76</v>
+      </c>
+      <c r="H39">
+        <v>0.009148</v>
+      </c>
+      <c r="K39">
+        <v>-4624.59</v>
+      </c>
+      <c r="L39">
+        <v>-6.3E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B40">
+        <v>74123535.88</v>
+      </c>
+      <c r="C40">
+        <v>77661.57000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.001049</v>
+      </c>
+      <c r="E40">
+        <v>71228.98</v>
+      </c>
+      <c r="F40">
+        <v>0.000962</v>
+      </c>
+      <c r="G40">
+        <v>-30234.12</v>
+      </c>
+      <c r="H40">
+        <v>-0.000408</v>
+      </c>
+      <c r="K40">
+        <v>-8607.67</v>
+      </c>
+      <c r="L40">
+        <v>-0.000116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B41">
+        <v>74253731.81999999</v>
+      </c>
+      <c r="C41">
+        <v>-243390.37</v>
+      </c>
+      <c r="D41">
+        <v>-0.003284</v>
+      </c>
+      <c r="E41">
+        <v>-27346.26</v>
+      </c>
+      <c r="F41">
+        <v>-0.000369</v>
+      </c>
+      <c r="G41">
+        <v>405661.21</v>
+      </c>
+      <c r="H41">
+        <v>0.005473</v>
+      </c>
+      <c r="K41">
+        <v>379.74</v>
+      </c>
+      <c r="L41">
+        <v>5E-06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B42">
+        <v>74281517.7</v>
+      </c>
+      <c r="C42">
+        <v>73987.60000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.0009959999999999999</v>
+      </c>
+      <c r="E42">
+        <v>-31045.78</v>
+      </c>
+      <c r="F42">
+        <v>-0.000418</v>
+      </c>
+      <c r="G42">
+        <v>34729.84</v>
+      </c>
+      <c r="H42">
+        <v>0.000468</v>
+      </c>
+      <c r="K42">
+        <v>-35830.17</v>
+      </c>
+      <c r="L42">
+        <v>-0.000483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B43">
+        <v>74260673.53</v>
+      </c>
+      <c r="C43">
+        <v>17588.98</v>
+      </c>
+      <c r="D43">
+        <v>0.000237</v>
+      </c>
+      <c r="E43">
+        <v>-9616.860000000001</v>
+      </c>
+      <c r="F43">
+        <v>-0.000129</v>
+      </c>
+      <c r="G43">
+        <v>-52356.03</v>
+      </c>
+      <c r="H43">
+        <v>-0.000705</v>
+      </c>
+      <c r="K43">
+        <v>28017.63</v>
+      </c>
+      <c r="L43">
+        <v>0.000377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B44">
+        <v>74183336.18000001</v>
+      </c>
+      <c r="C44">
+        <v>-63924.14</v>
+      </c>
+      <c r="D44">
+        <v>-0.000861</v>
+      </c>
+      <c r="E44">
+        <v>-14786.09</v>
+      </c>
+      <c r="F44">
+        <v>-0.000199</v>
+      </c>
+      <c r="G44">
+        <v>27268.32</v>
+      </c>
+      <c r="H44">
+        <v>0.000367</v>
+      </c>
+      <c r="K44">
+        <v>-2190.1</v>
+      </c>
+      <c r="L44">
+        <v>-2.9E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B45">
+        <v>73057797.05</v>
+      </c>
+      <c r="C45">
+        <v>-436824.38</v>
+      </c>
+      <c r="D45">
+        <v>-0.005888</v>
+      </c>
+      <c r="E45">
+        <v>-15727.98</v>
+      </c>
+      <c r="F45">
+        <v>-0.000212</v>
+      </c>
+      <c r="G45">
+        <v>-660560.55</v>
+      </c>
+      <c r="H45">
+        <v>-0.008904</v>
+      </c>
+      <c r="K45">
+        <v>2143.39</v>
+      </c>
+      <c r="L45">
+        <v>2.9E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B46">
+        <v>70647683.15000001</v>
+      </c>
+      <c r="C46">
+        <v>-369987.19</v>
+      </c>
+      <c r="D46">
+        <v>-0.005064</v>
+      </c>
+      <c r="E46">
+        <v>-94809.23</v>
+      </c>
+      <c r="F46">
+        <v>-0.001298</v>
+      </c>
+      <c r="G46">
+        <v>-1971204.14</v>
+      </c>
+      <c r="H46">
+        <v>-0.026981</v>
+      </c>
+      <c r="K46">
+        <v>-8880.5</v>
+      </c>
+      <c r="L46">
+        <v>-0.000122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B47">
+        <v>102010446.16</v>
+      </c>
+      <c r="C47">
+        <v>372346.8</v>
+      </c>
+      <c r="D47">
+        <v>0.00527</v>
+      </c>
+      <c r="E47">
+        <v>76155.99000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.001078</v>
+      </c>
+      <c r="G47">
+        <v>2064144.37</v>
+      </c>
+      <c r="H47">
+        <v>0.029217</v>
+      </c>
+      <c r="K47">
+        <v>13601.15</v>
+      </c>
+      <c r="L47">
+        <v>0.000193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B48">
+        <v>100935067.78</v>
+      </c>
+      <c r="C48">
+        <v>407012.87</v>
+      </c>
+      <c r="D48">
+        <v>0.00399</v>
+      </c>
+      <c r="E48">
+        <v>3248.1</v>
+      </c>
+      <c r="F48">
+        <v>3.2E-05</v>
+      </c>
+      <c r="G48">
+        <v>-1484851.01</v>
+      </c>
+      <c r="H48">
+        <v>-0.014556</v>
+      </c>
+      <c r="K48">
+        <v>1417.24</v>
+      </c>
+      <c r="L48">
+        <v>1.4E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B49">
+        <v>102835242.99</v>
+      </c>
+      <c r="C49">
+        <v>-83035.34</v>
+      </c>
+      <c r="D49">
+        <v>-0.0008229999999999999</v>
+      </c>
+      <c r="E49">
+        <v>32015.39</v>
+      </c>
+      <c r="F49">
+        <v>0.000317</v>
+      </c>
+      <c r="G49">
+        <v>2016882.97</v>
+      </c>
+      <c r="H49">
+        <v>0.019982</v>
+      </c>
+      <c r="K49">
+        <v>5390.53</v>
+      </c>
+      <c r="L49">
+        <v>5.3E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B50">
+        <v>102797241.83</v>
+      </c>
+      <c r="C50">
+        <v>187330.04</v>
+      </c>
+      <c r="D50">
+        <v>0.001822</v>
+      </c>
+      <c r="E50">
+        <v>120463.06</v>
+      </c>
+      <c r="F50">
+        <v>0.001171</v>
+      </c>
+      <c r="G50">
+        <v>-295077.51</v>
+      </c>
+      <c r="H50">
+        <v>-0.002869</v>
+      </c>
+      <c r="K50">
+        <v>-40905.43</v>
+      </c>
+      <c r="L50">
+        <v>-0.000398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B51">
+        <v>102824550.29</v>
+      </c>
+      <c r="C51">
+        <v>-54418.39</v>
+      </c>
+      <c r="D51">
+        <v>-0.000529</v>
+      </c>
+      <c r="E51">
+        <v>-265756.14</v>
+      </c>
+      <c r="F51">
+        <v>-0.002585</v>
+      </c>
+      <c r="G51">
+        <v>355688.92</v>
+      </c>
+      <c r="H51">
+        <v>0.00346</v>
+      </c>
+      <c r="K51">
+        <v>-7520.39</v>
+      </c>
+      <c r="L51">
+        <v>-7.3E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B52">
+        <v>102765946.15</v>
+      </c>
+      <c r="C52">
+        <v>42566.35</v>
+      </c>
+      <c r="D52">
+        <v>0.000414</v>
+      </c>
+      <c r="E52">
+        <v>-60968.49</v>
+      </c>
+      <c r="F52">
+        <v>-0.000593</v>
+      </c>
+      <c r="G52">
+        <v>-10669.21</v>
+      </c>
+      <c r="H52">
+        <v>-0.000104</v>
+      </c>
+      <c r="K52">
+        <v>-21624.44</v>
+      </c>
+      <c r="L52">
+        <v>-0.00021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B53">
+        <v>102248631.64</v>
+      </c>
+      <c r="C53">
+        <v>178548.32</v>
+      </c>
+      <c r="D53">
+        <v>0.001737</v>
+      </c>
+      <c r="E53">
+        <v>-87883.14</v>
+      </c>
+      <c r="F53">
+        <v>-0.000855</v>
+      </c>
+      <c r="G53">
+        <v>-611141.51</v>
+      </c>
+      <c r="H53">
+        <v>-0.005947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B54">
+        <v>102953140.88</v>
+      </c>
+      <c r="C54">
+        <v>470730.02</v>
+      </c>
+      <c r="D54">
+        <v>0.004604</v>
+      </c>
+      <c r="E54">
+        <v>71883.57000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.000703</v>
+      </c>
+      <c r="G54">
+        <v>159573.1</v>
+      </c>
+      <c r="H54">
+        <v>0.001561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B55">
+        <v>102376088.35</v>
+      </c>
+      <c r="C55">
+        <v>-13800.81</v>
+      </c>
+      <c r="D55">
+        <v>-0.000134</v>
+      </c>
+      <c r="E55">
+        <v>-23209.63</v>
+      </c>
+      <c r="F55">
+        <v>-0.000225</v>
+      </c>
+      <c r="G55">
+        <v>-530863.37</v>
+      </c>
+      <c r="H55">
+        <v>-0.005156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B56">
+        <v>101983741.3</v>
+      </c>
+      <c r="C56">
+        <v>-356358.88</v>
+      </c>
+      <c r="D56">
+        <v>-0.003481</v>
+      </c>
+      <c r="E56">
+        <v>-38326.79</v>
+      </c>
+      <c r="F56">
+        <v>-0.000374</v>
+      </c>
+      <c r="G56">
+        <v>-35027.37</v>
+      </c>
+      <c r="H56">
+        <v>-0.000342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B57">
+        <v>101669710.75</v>
+      </c>
+      <c r="C57">
+        <v>-182127.35</v>
+      </c>
+      <c r="D57">
+        <v>-0.001786</v>
+      </c>
+      <c r="E57">
+        <v>-39619.34</v>
+      </c>
+      <c r="F57">
+        <v>-0.000388</v>
+      </c>
+      <c r="G57">
+        <v>-93139.48</v>
+      </c>
+      <c r="H57">
+        <v>-0.000913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B58">
+        <v>101453054.84</v>
+      </c>
+      <c r="C58">
+        <v>-109686.57</v>
+      </c>
+      <c r="D58">
+        <v>-0.001079</v>
+      </c>
+      <c r="E58">
+        <v>50424.37</v>
+      </c>
+      <c r="F58">
+        <v>0.000496</v>
+      </c>
+      <c r="G58">
+        <v>-169739.56</v>
+      </c>
+      <c r="H58">
+        <v>-0.00167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B59">
+        <v>102004250.16</v>
+      </c>
+      <c r="C59">
+        <v>30692.39</v>
+      </c>
+      <c r="D59">
+        <v>0.000303</v>
+      </c>
+      <c r="E59">
+        <v>-23125.02</v>
+      </c>
+      <c r="F59">
+        <v>-0.000228</v>
+      </c>
+      <c r="G59">
+        <v>573087</v>
+      </c>
+      <c r="H59">
+        <v>0.005649</v>
+      </c>
+      <c r="M59">
+        <v>-25.58</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B60">
+        <v>102202117.62</v>
+      </c>
+      <c r="C60">
+        <v>141586.59</v>
+      </c>
+      <c r="D60">
+        <v>0.001388</v>
+      </c>
+      <c r="E60">
+        <v>26775.31</v>
+      </c>
+      <c r="F60">
+        <v>0.000262</v>
+      </c>
+      <c r="G60">
+        <v>74207.89</v>
+      </c>
+      <c r="H60">
+        <v>0.000727</v>
+      </c>
+      <c r="M60">
+        <v>863.67</v>
+      </c>
+      <c r="N60">
+        <v>8E-06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B61">
+        <v>102694479.16</v>
+      </c>
+      <c r="C61">
+        <v>119298.25</v>
+      </c>
+      <c r="D61">
+        <v>0.001167</v>
+      </c>
+      <c r="E61">
+        <v>12838.63</v>
+      </c>
+      <c r="F61">
+        <v>0.000126</v>
+      </c>
+      <c r="G61">
+        <v>315253.2</v>
+      </c>
+      <c r="H61">
+        <v>0.003085</v>
+      </c>
+      <c r="M61">
+        <v>3712.56</v>
+      </c>
+      <c r="N61">
+        <v>3.6E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B62">
+        <v>101294983.6</v>
+      </c>
+      <c r="C62">
+        <v>296192.42</v>
+      </c>
+      <c r="D62">
+        <v>0.002884</v>
+      </c>
+      <c r="E62">
+        <v>87900.58</v>
+      </c>
+      <c r="F62">
+        <v>0.000856</v>
+      </c>
+      <c r="G62">
+        <v>-1677778.22</v>
+      </c>
+      <c r="H62">
+        <v>-0.016338</v>
+      </c>
+      <c r="M62">
+        <v>1120.02</v>
+      </c>
+      <c r="N62">
+        <v>1.1E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B63">
+        <v>101959821.66</v>
+      </c>
+      <c r="C63">
+        <v>-374663.33</v>
+      </c>
+      <c r="D63">
+        <v>-0.003699</v>
+      </c>
+      <c r="E63">
+        <v>-43514.25</v>
+      </c>
+      <c r="F63">
+        <v>-0.00043</v>
+      </c>
+      <c r="G63">
+        <v>1044664.42</v>
+      </c>
+      <c r="H63">
+        <v>0.010313</v>
+      </c>
+      <c r="M63">
+        <v>-3474.98</v>
+      </c>
+      <c r="N63">
+        <v>-3.4E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B64">
+        <v>101411497.21</v>
+      </c>
+      <c r="C64">
+        <v>-261594.61</v>
+      </c>
+      <c r="D64">
+        <v>-0.002566</v>
+      </c>
+      <c r="E64">
+        <v>-9921.969999999999</v>
+      </c>
+      <c r="F64">
+        <v>-9.7E-05</v>
+      </c>
+      <c r="G64">
+        <v>-145368.83</v>
+      </c>
+      <c r="H64">
+        <v>-0.001426</v>
+      </c>
+      <c r="M64">
+        <v>-515.58</v>
+      </c>
+      <c r="N64">
+        <v>-5E-06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B65">
+        <v>102028105.19</v>
+      </c>
+      <c r="C65">
+        <v>36688.27</v>
+      </c>
+      <c r="D65">
+        <v>0.000362</v>
+      </c>
+      <c r="E65">
+        <v>6035.34</v>
+      </c>
+      <c r="F65">
+        <v>6E-05</v>
+      </c>
+      <c r="G65">
+        <v>589800.12</v>
+      </c>
+      <c r="H65">
+        <v>0.005816</v>
+      </c>
+      <c r="M65">
+        <v>856.8</v>
+      </c>
+      <c r="N65">
+        <v>8E-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B66">
+        <v>100659749.52</v>
+      </c>
+      <c r="C66">
+        <v>167727.46</v>
+      </c>
+      <c r="D66">
+        <v>0.001644</v>
+      </c>
+      <c r="E66">
+        <v>116074.92</v>
+      </c>
+      <c r="F66">
+        <v>0.001138</v>
+      </c>
+      <c r="G66">
+        <v>-1623158.76</v>
+      </c>
+      <c r="H66">
+        <v>-0.015909</v>
+      </c>
+      <c r="M66">
+        <v>-630.85</v>
+      </c>
+      <c r="N66">
+        <v>-6E-06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B67">
+        <v>101137402.69</v>
+      </c>
+      <c r="C67">
+        <v>358013.15</v>
+      </c>
+      <c r="D67">
+        <v>0.003557</v>
+      </c>
+      <c r="E67">
+        <v>116686.15</v>
+      </c>
+      <c r="F67">
+        <v>0.001159</v>
+      </c>
+      <c r="G67">
+        <v>4066</v>
+      </c>
+      <c r="H67">
+        <v>4E-05</v>
+      </c>
+      <c r="M67">
+        <v>-460.51</v>
+      </c>
+      <c r="N67">
+        <v>-5E-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B68">
+        <v>100413680.04</v>
+      </c>
+      <c r="C68">
+        <v>-40154.45</v>
+      </c>
+      <c r="D68">
+        <v>-0.000397</v>
+      </c>
+      <c r="E68">
+        <v>-24656.02</v>
+      </c>
+      <c r="F68">
+        <v>-0.000244</v>
+      </c>
+      <c r="G68">
+        <v>-730474.3199999999</v>
+      </c>
+      <c r="H68">
+        <v>-0.007223</v>
+      </c>
+      <c r="M68">
+        <v>8169.85</v>
+      </c>
+      <c r="N68">
+        <v>8.1E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B69">
+        <v>99416512.37</v>
+      </c>
+      <c r="C69">
+        <v>-138964.97</v>
+      </c>
+      <c r="D69">
+        <v>-0.001384</v>
+      </c>
+      <c r="E69">
+        <v>17050.38</v>
+      </c>
+      <c r="F69">
+        <v>0.00017</v>
+      </c>
+      <c r="G69">
+        <v>151119.63</v>
+      </c>
+      <c r="H69">
+        <v>0.001505</v>
+      </c>
+      <c r="M69">
+        <v>-6722.03</v>
+      </c>
+      <c r="N69">
+        <v>-6.7E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B70">
+        <v>99654082.76000001</v>
+      </c>
+      <c r="C70">
+        <v>-312865.96</v>
+      </c>
+      <c r="D70">
+        <v>-0.003147</v>
+      </c>
+      <c r="E70">
+        <v>-61676.82</v>
+      </c>
+      <c r="F70">
+        <v>-0.00062</v>
+      </c>
+      <c r="G70">
+        <v>638605.97</v>
+      </c>
+      <c r="H70">
+        <v>0.006424</v>
+      </c>
+      <c r="M70">
+        <v>9722.5</v>
+      </c>
+      <c r="N70">
+        <v>9.8E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B71">
+        <v>100379761.47</v>
+      </c>
+      <c r="C71">
+        <v>517942.1</v>
+      </c>
+      <c r="D71">
+        <v>0.005197</v>
+      </c>
+      <c r="E71">
+        <v>106537.03</v>
+      </c>
+      <c r="F71">
+        <v>0.001069</v>
+      </c>
+      <c r="G71">
+        <v>136021.19</v>
+      </c>
+      <c r="H71">
+        <v>0.001365</v>
+      </c>
+      <c r="M71">
+        <v>-1018.94</v>
+      </c>
+      <c r="N71">
+        <v>-1E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B72">
+        <v>101694677.12</v>
+      </c>
+      <c r="C72">
+        <v>146146.48</v>
+      </c>
+      <c r="D72">
+        <v>0.001456</v>
+      </c>
+      <c r="E72">
+        <v>195223.42</v>
+      </c>
+      <c r="F72">
+        <v>0.001945</v>
+      </c>
+      <c r="G72">
+        <v>1013106.77</v>
+      </c>
+      <c r="H72">
+        <v>0.010093</v>
+      </c>
+      <c r="M72">
+        <v>1849.14</v>
+      </c>
+      <c r="N72">
+        <v>1.8E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B73">
+        <v>103093341.21</v>
+      </c>
+      <c r="C73">
+        <v>301175.49</v>
+      </c>
+      <c r="D73">
+        <v>0.002962</v>
+      </c>
+      <c r="E73">
+        <v>-51708.73</v>
+      </c>
+      <c r="F73">
+        <v>-0.000508</v>
+      </c>
+      <c r="G73">
+        <v>1123051.15</v>
+      </c>
+      <c r="H73">
+        <v>0.011043</v>
+      </c>
+      <c r="M73">
+        <v>-4170.78</v>
+      </c>
+      <c r="N73">
+        <v>-4.1E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B74">
+        <v>104761450.09</v>
+      </c>
+      <c r="C74">
+        <v>475723.65</v>
+      </c>
+      <c r="D74">
+        <v>0.004614</v>
+      </c>
+      <c r="E74">
+        <v>26232.23</v>
+      </c>
+      <c r="F74">
+        <v>0.000254</v>
+      </c>
+      <c r="G74">
+        <v>1162771.45</v>
+      </c>
+      <c r="H74">
+        <v>0.011279</v>
+      </c>
+      <c r="M74">
+        <v>11206.61</v>
+      </c>
+      <c r="N74">
+        <v>0.000109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B75">
+        <v>106601003.08</v>
+      </c>
+      <c r="C75">
+        <v>-80495.73</v>
+      </c>
+      <c r="D75">
+        <v>-0.000768</v>
+      </c>
+      <c r="E75">
+        <v>137021.87</v>
+      </c>
+      <c r="F75">
+        <v>0.001308</v>
+      </c>
+      <c r="G75">
+        <v>1774912.07</v>
+      </c>
+      <c r="H75">
+        <v>0.016942</v>
+      </c>
+      <c r="M75">
+        <v>-337.56</v>
+      </c>
+      <c r="N75">
+        <v>-3E-06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B76">
+        <v>107417646.84</v>
+      </c>
+      <c r="C76">
+        <v>232410.79</v>
+      </c>
+      <c r="D76">
+        <v>0.00218</v>
+      </c>
+      <c r="E76">
+        <v>102975.7</v>
+      </c>
+      <c r="F76">
+        <v>0.000966</v>
+      </c>
+      <c r="G76">
+        <v>458906.5</v>
+      </c>
+      <c r="H76">
+        <v>0.004305</v>
+      </c>
+      <c r="M76">
+        <v>7982.04</v>
+      </c>
+      <c r="N76">
+        <v>7.499999999999999E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B77">
+        <v>108102334.99</v>
+      </c>
+      <c r="C77">
+        <v>-50466.43</v>
+      </c>
+      <c r="D77">
+        <v>-0.00047</v>
+      </c>
+      <c r="E77">
+        <v>163993.92</v>
+      </c>
+      <c r="F77">
+        <v>0.001527</v>
+      </c>
+      <c r="G77">
+        <v>603454.76</v>
+      </c>
+      <c r="H77">
+        <v>0.005618</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B78">
+        <v>108255935.05</v>
+      </c>
+      <c r="C78">
+        <v>51071.47</v>
+      </c>
+      <c r="D78">
+        <v>0.000472</v>
+      </c>
+      <c r="E78">
+        <v>-129850.5</v>
+      </c>
+      <c r="F78">
+        <v>-0.001201</v>
+      </c>
+      <c r="G78">
+        <v>238688.7</v>
+      </c>
+      <c r="H78">
+        <v>0.002208</v>
+      </c>
+      <c r="M78">
+        <v>-5070.27</v>
+      </c>
+      <c r="N78">
+        <v>-4.7E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B79">
+        <v>108382590.23</v>
+      </c>
+      <c r="C79">
+        <v>362374.56</v>
+      </c>
+      <c r="D79">
+        <v>0.003347</v>
+      </c>
+      <c r="E79">
+        <v>-110566.72</v>
+      </c>
+      <c r="F79">
+        <v>-0.001021</v>
+      </c>
+      <c r="G79">
+        <v>-98553.91</v>
+      </c>
+      <c r="H79">
+        <v>-0.00091</v>
+      </c>
+      <c r="M79">
+        <v>-13098.31</v>
+      </c>
+      <c r="N79">
+        <v>-0.000121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B80">
+        <v>107524769.92</v>
+      </c>
+      <c r="C80">
+        <v>-442305</v>
+      </c>
+      <c r="D80">
+        <v>-0.004081</v>
+      </c>
+      <c r="E80">
+        <v>-95764.72</v>
+      </c>
+      <c r="F80">
+        <v>-0.000884</v>
+      </c>
+      <c r="G80">
+        <v>-289846.25</v>
+      </c>
+      <c r="H80">
+        <v>-0.002674</v>
+      </c>
+      <c r="M80">
+        <v>-2073.02</v>
+      </c>
+      <c r="N80">
+        <v>-1.9E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B81">
+        <v>107350357.14</v>
+      </c>
+      <c r="C81">
+        <v>-34227.58</v>
+      </c>
+      <c r="D81">
+        <v>-0.000318</v>
+      </c>
+      <c r="E81">
+        <v>-8189.59</v>
+      </c>
+      <c r="F81">
+        <v>-7.6E-05</v>
+      </c>
+      <c r="G81">
+        <v>-134755.73</v>
+      </c>
+      <c r="H81">
+        <v>-0.001253</v>
+      </c>
+      <c r="M81">
+        <v>11340.77</v>
+      </c>
+      <c r="N81">
+        <v>0.000105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B82">
+        <v>107460761.11</v>
+      </c>
+      <c r="C82">
+        <v>-218083.68</v>
+      </c>
+      <c r="D82">
+        <v>-0.002032</v>
+      </c>
+      <c r="E82">
+        <v>-2003.22</v>
+      </c>
+      <c r="F82">
+        <v>-1.9E-05</v>
+      </c>
+      <c r="G82">
+        <v>292888.59</v>
+      </c>
+      <c r="H82">
+        <v>0.002728</v>
+      </c>
+      <c r="M82">
+        <v>2202.63</v>
+      </c>
+      <c r="N82">
+        <v>2.1E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B83">
+        <v>107411990.04</v>
+      </c>
+      <c r="C83">
+        <v>-215007.32</v>
+      </c>
+      <c r="D83">
+        <v>-0.002001</v>
+      </c>
+      <c r="E83">
+        <v>166403.97</v>
+      </c>
+      <c r="F83">
+        <v>0.001549</v>
+      </c>
+      <c r="G83">
+        <v>30937.59</v>
+      </c>
+      <c r="H83">
+        <v>0.000288</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B84">
+        <v>107114786.56</v>
+      </c>
+      <c r="C84">
+        <v>230532.92</v>
+      </c>
+      <c r="D84">
+        <v>0.002146</v>
+      </c>
+      <c r="E84">
+        <v>-31068.39</v>
+      </c>
+      <c r="F84">
+        <v>-0.000289</v>
+      </c>
+      <c r="G84">
+        <v>-365624.48</v>
+      </c>
+      <c r="H84">
+        <v>-0.003404</v>
+      </c>
+      <c r="M84">
+        <v>-3035.96</v>
+      </c>
+      <c r="N84">
+        <v>-2.8E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B85">
+        <v>106495965.58</v>
+      </c>
+      <c r="C85">
+        <v>-37644.46</v>
+      </c>
+      <c r="D85">
+        <v>-0.000351</v>
+      </c>
+      <c r="E85">
+        <v>-194083.7</v>
+      </c>
+      <c r="F85">
+        <v>-0.001812</v>
+      </c>
+      <c r="G85">
+        <v>-339117.67</v>
+      </c>
+      <c r="H85">
+        <v>-0.003166</v>
+      </c>
+      <c r="M85">
+        <v>10969.52</v>
+      </c>
+      <c r="N85">
+        <v>0.000102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B86">
+        <v>106289923.76</v>
+      </c>
+      <c r="C86">
+        <v>-219253.04</v>
+      </c>
+      <c r="D86">
+        <v>-0.002059</v>
+      </c>
+      <c r="E86">
+        <v>-97151.92999999999</v>
+      </c>
+      <c r="F86">
+        <v>-0.0009120000000000001</v>
+      </c>
+      <c r="G86">
+        <v>67653.83</v>
+      </c>
+      <c r="H86">
+        <v>0.000635</v>
+      </c>
+      <c r="M86">
+        <v>26816.87</v>
+      </c>
+      <c r="N86">
+        <v>0.000252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B87">
+        <v>107055667.67</v>
+      </c>
+      <c r="C87">
+        <v>499011.17</v>
+      </c>
+      <c r="D87">
+        <v>0.004695</v>
+      </c>
+      <c r="E87">
+        <v>43340.1</v>
+      </c>
+      <c r="F87">
+        <v>0.000408</v>
+      </c>
+      <c r="G87">
+        <v>239005.61</v>
+      </c>
+      <c r="H87">
+        <v>0.002249</v>
+      </c>
+      <c r="M87">
+        <v>-196.51</v>
+      </c>
+      <c r="N87">
+        <v>-2E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B88">
+        <v>107634838.87</v>
+      </c>
+      <c r="C88">
+        <v>121640.42</v>
+      </c>
+      <c r="D88">
+        <v>0.001136</v>
+      </c>
+      <c r="E88">
+        <v>53129.1</v>
+      </c>
+      <c r="F88">
+        <v>0.000496</v>
+      </c>
+      <c r="G88">
+        <v>401458.71</v>
+      </c>
+      <c r="H88">
+        <v>0.00375</v>
+      </c>
+      <c r="M88">
+        <v>4918.35</v>
+      </c>
+      <c r="N88">
+        <v>4.6E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="2">
         <v>45931</v>
       </c>
-      <c r="B2">
+      <c r="B89">
         <v>107311465.44</v>
       </c>
-      <c r="C2">
+      <c r="C89">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D89">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E89">
+        <v>128536.23</v>
+      </c>
+      <c r="F89">
+        <v>0.001194</v>
+      </c>
+      <c r="G89">
+        <v>-500469.05</v>
+      </c>
+      <c r="H89">
+        <v>-0.00465</v>
+      </c>
+      <c r="M89">
         <v>-31753.2</v>
       </c>
-      <c r="F2">
+      <c r="N89">
         <v>-0.000295</v>
-      </c>
-      <c r="G2">
-        <v>128536.23</v>
-      </c>
-      <c r="H2">
-        <v>0.001194</v>
-      </c>
-      <c r="I2">
-        <v>-500469.05</v>
-      </c>
-      <c r="J2">
-        <v>-0.00465</v>
       </c>
     </row>
   </sheetData>
